--- a/data/technology_patents/files/pct_total_unity.xlsx
+++ b/data/technology_patents/files/pct_total_unity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Coding/dashboard_seminar20/data/technology_patents/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B3A23F2-C208-AF4B-987F-A877656D3E00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4130965-A6BE-B449-80CD-3731EEF81E38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19200" xr2:uid="{CCD41FE4-C456-A14B-96DE-954F73EE5336}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="5">
   <si>
     <t>Country</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>World</t>
-  </si>
-  <si>
-    <t>BRIC</t>
   </si>
 </sst>
 </file>
@@ -404,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73614606-DCF1-5847-A146-BBAD1CABCE1A}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -844,215 +841,6 @@
         <v>243707</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40">
-        <v>1999</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41">
-        <v>2000</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42">
-        <v>2001</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43">
-        <v>2002</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44">
-        <v>2003</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45">
-        <v>2004</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46">
-        <v>2005</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47">
-        <v>2006</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48">
-        <v>2007</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49">
-        <v>2008</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50">
-        <v>2009</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51">
-        <v>2010</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52">
-        <v>2011</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53">
-        <v>2012</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54">
-        <v>2013</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55">
-        <v>2014</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56">
-        <v>2015</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57">
-        <v>2016</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58">
-        <v>2017</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
